--- a/downloads/Plantilla Presupuesto RIP Wallet - 2024.xlsx
+++ b/downloads/Plantilla Presupuesto RIP Wallet - 2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Downloads\Telegram Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7080D90-53E1-43CD-A12F-92B9C493EB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F24349-17D4-42CA-9999-D93BA08369AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1747,13 +1747,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.51675675675675681</c:v>
+                  <c:v>0.29729729729729731</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21621621621621623</c:v>
+                  <c:v>0.12972972972972974</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23297297297297298</c:v>
+                  <c:v>4.3243243243243246E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.12972972972972974</c:v>
@@ -2708,7 +2708,7 @@
   <dimension ref="A1:AC997"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="15" customHeight="1"/>
@@ -2762,7 +2762,7 @@
       </c>
       <c r="F2" s="58">
         <f>SUM(F4:F21)</f>
-        <v>478000</v>
+        <v>275000</v>
       </c>
       <c r="G2" s="54"/>
       <c r="H2" s="59" t="s">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="I2" s="60">
         <f>SUM(I4:I997)</f>
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="J2" s="54"/>
       <c r="K2" s="61" t="s">
@@ -2778,7 +2778,7 @@
       </c>
       <c r="L2" s="62">
         <f>SUM(L4:L997)</f>
-        <v>215500</v>
+        <v>40000</v>
       </c>
       <c r="M2" s="63"/>
       <c r="N2" s="161"/>
@@ -2841,14 +2841,14 @@
         <v>5</v>
       </c>
       <c r="I4" s="78">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="J4" s="54"/>
       <c r="K4" s="79" t="s">
         <v>6</v>
       </c>
       <c r="L4" s="80">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="M4" s="52"/>
       <c r="N4" s="81"/>
@@ -2873,7 +2873,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="76">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G5" s="54"/>
       <c r="H5" s="85" t="s">
@@ -2887,7 +2887,7 @@
         <v>10</v>
       </c>
       <c r="L5" s="88">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="M5" s="52"/>
       <c r="N5" s="81"/>
@@ -2912,7 +2912,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="76">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G6" s="54"/>
       <c r="H6" s="85"/>
@@ -2922,7 +2922,7 @@
         <v>62</v>
       </c>
       <c r="L6" s="88">
-        <v>65000</v>
+        <v>40000</v>
       </c>
       <c r="M6" s="52"/>
       <c r="N6" s="91"/>
@@ -2941,7 +2941,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="76">
-        <v>180000</v>
+        <v>0</v>
       </c>
       <c r="G7" s="54"/>
       <c r="H7" s="93" t="s">
@@ -2950,7 +2950,9 @@
       <c r="I7" s="86"/>
       <c r="J7" s="54"/>
       <c r="K7" s="87"/>
-      <c r="L7" s="88"/>
+      <c r="L7" s="88">
+        <v>0</v>
+      </c>
       <c r="M7" s="49"/>
       <c r="N7" s="94"/>
       <c r="O7" s="94"/>
@@ -2959,7 +2961,7 @@
       </c>
       <c r="AB7" s="96">
         <f>((F2)*100%)/C2</f>
-        <v>0.51675675675675681</v>
+        <v>0.29729729729729731</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="18" customHeight="1">
@@ -2968,8 +2970,8 @@
         <v>15</v>
       </c>
       <c r="C8" s="98">
-        <f>C2-F2-I2-L2</f>
-        <v>31500</v>
+        <f>C2-F2-I2-L2-F22</f>
+        <v>370000</v>
       </c>
       <c r="D8" s="49"/>
       <c r="E8" s="75"/>
@@ -2981,7 +2983,9 @@
       <c r="I8" s="86"/>
       <c r="J8" s="54"/>
       <c r="K8" s="87"/>
-      <c r="L8" s="88"/>
+      <c r="L8" s="88">
+        <v>0</v>
+      </c>
       <c r="M8" s="49"/>
       <c r="N8" s="65"/>
       <c r="O8" s="65"/>
@@ -2990,7 +2994,7 @@
       </c>
       <c r="AB8" s="96">
         <f>(I2*100%)/C2</f>
-        <v>0.21621621621621623</v>
+        <v>0.12972972972972974</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="18" customHeight="1">
@@ -3005,7 +3009,9 @@
       <c r="I9" s="86"/>
       <c r="J9" s="54"/>
       <c r="K9" s="87"/>
-      <c r="L9" s="88"/>
+      <c r="L9" s="88">
+        <v>0</v>
+      </c>
       <c r="M9" s="49"/>
       <c r="N9" s="99"/>
       <c r="O9" s="99"/>
@@ -3014,7 +3020,7 @@
       </c>
       <c r="AB9" s="101">
         <f>(L2*100%)/C2</f>
-        <v>0.23297297297297298</v>
+        <v>4.3243243243243246E-2</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="18" customHeight="1">
@@ -3034,7 +3040,7 @@
         <v>20</v>
       </c>
       <c r="L10" s="88">
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="M10" s="49"/>
       <c r="N10" s="102"/>
@@ -3064,7 +3070,7 @@
         <v>24</v>
       </c>
       <c r="L11" s="88">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="M11" s="49"/>
       <c r="N11" s="103"/>
@@ -3083,7 +3089,7 @@
         <v>25</v>
       </c>
       <c r="L12" s="88">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="M12" s="49"/>
       <c r="N12" s="103"/>
